--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
   <si>
     <t>Artist</t>
   </si>
@@ -36,6 +36,9 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>Martin Garrix, Tove Lo</t>
+  </si>
+  <si>
     <t>Feint</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
     <t>Bleu Clair, OOTORO</t>
   </si>
   <si>
+    <t>Pressure</t>
+  </si>
+  <si>
     <t>Do Better</t>
   </si>
   <si>
@@ -54,12 +60,12 @@
     <t>Beat Like This</t>
   </si>
   <si>
+    <t>STMPD RCRDS</t>
+  </si>
+  <si>
     <t>Monstercat</t>
   </si>
   <si>
-    <t>STMPD RCRDS</t>
-  </si>
-  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -67,6 +73,12 @@
   </si>
   <si>
     <t>Soundcloud_Plays</t>
+  </si>
+  <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
+    <t>Tove Lo</t>
   </si>
   <si>
     <t>Teddy Killerz</t>
@@ -436,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>51223</v>
+        <v>1286202</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -475,13 +487,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>49221</v>
+        <v>63216</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -489,13 +501,27 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>57445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>30311</v>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>40680</v>
       </c>
     </row>
   </sheetData>
@@ -505,7 +531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,27 +548,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -550,33 +576,50 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>2</v>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +629,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -611,41 +654,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>25301</v>
+        <v>59108</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>20536</v>
+        <v>33805</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>32523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>18231</v>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>25372</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +712,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -671,42 +728,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>51223</v>
+        <v>1286202</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>49221</v>
+        <v>1286202</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>49221</v>
+        <v>63216</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>30311</v>
+        <v>57445</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>30311</v>
+        <v>57445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>40680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>40680</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +789,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -727,65 +800,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>2</v>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +890,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -806,47 +901,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>25301</v>
+        <v>59108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>20536</v>
+        <v>59108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>20536</v>
+        <v>33805</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>18231</v>
+        <v>32523</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>18231</v>
+        <v>32523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>25372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>25372</v>
       </c>
     </row>
   </sheetData>
@@ -872,18 +983,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>100444</v>
+        <v>1326882</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>30311</v>
+        <v>120661</v>
       </c>
     </row>
   </sheetData>
@@ -904,32 +1015,32 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -950,23 +1061,23 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>43532</v>
+        <v>91631</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>20536</v>
+        <v>59177</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1286202</v>
+        <v>1677653</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -493,7 +493,7 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>63216</v>
+        <v>68685</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -507,7 +507,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>57445</v>
+        <v>60442</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -521,7 +521,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>40680</v>
+        <v>46129</v>
       </c>
     </row>
   </sheetData>
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -660,35 +660,35 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>59108</v>
+        <v>71763</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>33805</v>
+        <v>36527</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>32523</v>
+        <v>36286</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -702,7 +702,7 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>25372</v>
+        <v>27644</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1286202</v>
+        <v>1677653</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -739,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1286202</v>
+        <v>1677653</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>63216</v>
+        <v>68685</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -755,7 +755,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>57445</v>
+        <v>60442</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>57445</v>
+        <v>60442</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -771,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>40680</v>
+        <v>46129</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -779,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>40680</v>
+        <v>46129</v>
       </c>
     </row>
   </sheetData>
@@ -811,10 +811,10 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -822,10 +822,10 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -833,10 +833,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -844,10 +844,10 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>59108</v>
+        <v>71763</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -917,31 +917,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>59108</v>
+        <v>71763</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>33805</v>
+        <v>36527</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>32523</v>
+        <v>36527</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>32523</v>
+        <v>36286</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -949,7 +949,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>25372</v>
+        <v>27644</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -957,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>25372</v>
+        <v>27644</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +986,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1326882</v>
+        <v>1723782</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -994,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>120661</v>
+        <v>129127</v>
       </c>
     </row>
   </sheetData>
@@ -1026,10 +1026,10 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>91631</v>
+        <v>108290</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>59177</v>
+        <v>63930</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="86">
   <si>
     <t>Artist</t>
   </si>
@@ -39,33 +39,153 @@
     <t>Martin Garrix, Tove Lo</t>
   </si>
   <si>
+    <t>Tom Wilson, M.I.M.E</t>
+  </si>
+  <si>
+    <t>hayve</t>
+  </si>
+  <si>
+    <t>Daft Punk, RetroVision</t>
+  </si>
+  <si>
     <t>Feint</t>
   </si>
   <si>
+    <t>Bleu Clair, OOTORO</t>
+  </si>
+  <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>The Bloody Beetroots, Teddy Killerz</t>
   </si>
   <si>
-    <t>Bleu Clair, OOTORO</t>
+    <t>Seth Hills, Vluarr, Lucas Ariel</t>
+  </si>
+  <si>
+    <t>Lost Frequencies, Mathieu Koss, Brooks</t>
+  </si>
+  <si>
+    <t>Chime, Franky Nuts, Oliverse</t>
+  </si>
+  <si>
+    <t>RetroVision</t>
+  </si>
+  <si>
+    <t>THYKIER</t>
+  </si>
+  <si>
+    <t>Sagan, Heyem &amp; Groozin</t>
+  </si>
+  <si>
+    <t>Dossa &amp; Locuzzed, Anastasia</t>
+  </si>
+  <si>
+    <t>FEIVER</t>
+  </si>
+  <si>
+    <t>Showmain, 7en</t>
+  </si>
+  <si>
+    <t>Polygon</t>
   </si>
   <si>
     <t>Pressure</t>
   </si>
   <si>
+    <t>Run For Your Life</t>
+  </si>
+  <si>
+    <t>Red Light</t>
+  </si>
+  <si>
+    <t>Harder, Better, Faster, Stronger (RetroVision Remix)</t>
+  </si>
+  <si>
     <t>Do Better</t>
   </si>
   <si>
+    <t>Beat Like This</t>
+  </si>
+  <si>
+    <t>Kass' Theme - Jazz Accordion Arrangement</t>
+  </si>
+  <si>
     <t>Elevate</t>
   </si>
   <si>
-    <t>Beat Like This</t>
+    <t>Calling Out</t>
+  </si>
+  <si>
+    <t>Don't Leave Me Now (Brooks Remix)</t>
+  </si>
+  <si>
+    <t>Golden Battle</t>
+  </si>
+  <si>
+    <t>Let Me Go</t>
+  </si>
+  <si>
+    <t>All About U</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Wanna Love</t>
+  </si>
+  <si>
+    <t>Dreamer</t>
+  </si>
+  <si>
+    <t>On My Mind (Chime Mix)</t>
+  </si>
+  <si>
+    <t>Right Way</t>
+  </si>
+  <si>
+    <t>Hold On Me</t>
+  </si>
+  <si>
+    <t>Chasing The Sun</t>
+  </si>
+  <si>
+    <t>Falling</t>
   </si>
   <si>
     <t>STMPD RCRDS</t>
   </si>
   <si>
+    <t>NCS</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
     <t>Monstercat</t>
   </si>
   <si>
+    <t>Found Frequencies, Armada Music</t>
+  </si>
+  <si>
+    <t>Disciple</t>
+  </si>
+  <si>
+    <t>HEXAGON</t>
+  </si>
+  <si>
+    <t>Viper Recordings</t>
+  </si>
+  <si>
+    <t>Future House Cloud, FHC Selection</t>
+  </si>
+  <si>
+    <t>Future House Cloud</t>
+  </si>
+  <si>
+    <t>Elevate Records, SHOGUN</t>
+  </si>
+  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -81,16 +201,85 @@
     <t>Tove Lo</t>
   </si>
   <si>
+    <t>M.I.M.E</t>
+  </si>
+  <si>
+    <t>Tom Wilson</t>
+  </si>
+  <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>Bleu Clair</t>
+  </si>
+  <si>
+    <t>OOTORO</t>
+  </si>
+  <si>
     <t>Teddy Killerz</t>
   </si>
   <si>
     <t>The Bloody Beetroots</t>
   </si>
   <si>
-    <t>Bleu Clair</t>
-  </si>
-  <si>
-    <t>OOTORO</t>
+    <t>Lucas Ariel</t>
+  </si>
+  <si>
+    <t>Seth Hills</t>
+  </si>
+  <si>
+    <t>Vluarr</t>
+  </si>
+  <si>
+    <t>Chime</t>
+  </si>
+  <si>
+    <t>Franky Nuts</t>
+  </si>
+  <si>
+    <t>Oliverse</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Lost Frequencies</t>
+  </si>
+  <si>
+    <t>Mathieu Koss</t>
+  </si>
+  <si>
+    <t>Heyem &amp; Groozin</t>
+  </si>
+  <si>
+    <t>Sagan</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Dossa &amp; Locuzzed</t>
+  </si>
+  <si>
+    <t>7en</t>
+  </si>
+  <si>
+    <t>Showmain</t>
+  </si>
+  <si>
+    <t>Armada Music</t>
+  </si>
+  <si>
+    <t>Found Frequencies</t>
+  </si>
+  <si>
+    <t>FHC Selection</t>
+  </si>
+  <si>
+    <t>Elevate Records</t>
+  </si>
+  <si>
+    <t>SHOGUN</t>
   </si>
 </sst>
 </file>
@@ -448,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,13 +662,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>1677653</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -487,13 +676,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>68685</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -501,13 +690,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>60442</v>
+        <v>797062</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -515,13 +704,251 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>133527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>124224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>107988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>91603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>89968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>46129</v>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>87524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>65741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>50768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>30491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>22734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>20748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>18848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>11354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +958,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -548,78 +975,367 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -654,55 +1370,293 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>71763</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>36527</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>36286</v>
+        <v>59009</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>51946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>42338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>22649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>21874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>16128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>27644</v>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -728,58 +1682,250 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>1677653</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>1677653</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B4">
-        <v>68685</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>60442</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>60442</v>
+        <v>797062</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>46129</v>
+        <v>164018</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>46129</v>
+        <v>142371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>133527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>124224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>107988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>107988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>89968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>89968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>87524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>87524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>87524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>77624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>77624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>77624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>65741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <v>65741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>65741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>22734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25">
+        <v>18848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>18848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +1935,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -800,87 +1946,351 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -901,63 +2311,255 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>71763</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>71763</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B4">
-        <v>36527</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B5">
-        <v>36527</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>36286</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>27644</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>27644</v>
+        <v>68717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>59009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>42338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>22649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>22649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>22649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>21874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>16128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +2569,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -983,18 +2585,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>1723782</v>
+        <v>5639044</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>129127</v>
+        <v>1670988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>214192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>77624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>65741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>65741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>49339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +2686,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1015,32 +2697,142 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +2842,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1061,23 +2853,103 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>108290</v>
+        <v>314470</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>63930</v>
+        <v>123710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>103242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>84651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>27866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="94">
   <si>
     <t>Artist</t>
   </si>
@@ -87,6 +87,9 @@
     <t>Showmain, 7en</t>
   </si>
   <si>
+    <t>Kamix, WYKO, PJONAX</t>
+  </si>
+  <si>
     <t>Polygon</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
     <t>Chasing The Sun</t>
   </si>
   <si>
+    <t>Without You</t>
+  </si>
+  <si>
     <t>Falling</t>
   </si>
   <si>
@@ -183,6 +189,9 @@
     <t>Future House Cloud</t>
   </si>
   <si>
+    <t>Revealed Music, Revealed Radar</t>
+  </si>
+  <si>
     <t>Elevate Records, SHOGUN</t>
   </si>
   <si>
@@ -267,6 +276,15 @@
     <t>Showmain</t>
   </si>
   <si>
+    <t>Kamix</t>
+  </si>
+  <si>
+    <t>PJONAX</t>
+  </si>
+  <si>
+    <t>WYKO</t>
+  </si>
+  <si>
     <t>Armada Music</t>
   </si>
   <si>
@@ -274,6 +292,12 @@
   </si>
   <si>
     <t>FHC Selection</t>
+  </si>
+  <si>
+    <t>Revealed Music</t>
+  </si>
+  <si>
+    <t>Revealed Radar</t>
   </si>
   <si>
     <t>Elevate Records</t>
@@ -637,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>5420798</v>
+        <v>6078009</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -676,13 +700,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>873926</v>
+        <v>946361</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -690,13 +714,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>797062</v>
+        <v>830608</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -704,13 +728,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>133527</v>
+        <v>149323</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -718,13 +742,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>124224</v>
+        <v>133190</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -732,13 +756,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>107988</v>
+        <v>113501</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -746,13 +770,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>91603</v>
+        <v>97959</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -760,13 +784,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>89968</v>
+        <v>94971</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -774,13 +798,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>87524</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -788,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>65741</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -802,13 +826,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>50768</v>
+        <v>55126</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -816,13 +840,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>45522</v>
+        <v>50767</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -830,13 +854,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>30491</v>
+        <v>31435</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -844,13 +868,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>22734</v>
+        <v>23815</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -858,13 +882,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>20748</v>
+        <v>22014</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -872,13 +896,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>18848</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -886,13 +910,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>11354</v>
+        <v>12860</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -900,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>4747</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -914,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>4007</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -928,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21">
-        <v>3693</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -942,13 +966,27 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>1767</v>
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>2284</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +996,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -975,10 +1013,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -986,16 +1024,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1003,16 +1041,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1020,16 +1058,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1037,67 +1075,67 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1105,58 +1143,58 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
       <c r="E10">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -1165,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1173,10 +1211,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1187,50 +1225,50 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1238,30 +1276,30 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1272,13 +1310,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1289,13 +1327,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1306,13 +1344,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1323,18 +1361,35 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -1345,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1370,13 +1425,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>206976</v>
+        <v>234959</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1384,13 +1439,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>68717</v>
+        <v>74442</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1398,13 +1453,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>59009</v>
+        <v>62367</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1412,69 +1467,69 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>51946</v>
+        <v>55545</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>44765</v>
+        <v>49815</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>44233</v>
+        <v>47745</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>42338</v>
+        <v>46865</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>42313</v>
+        <v>46093</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1482,13 +1537,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>26999</v>
+        <v>29142</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1496,13 +1551,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>22649</v>
+        <v>25106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1510,13 +1565,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>21874</v>
+        <v>23736</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1524,13 +1579,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>16128</v>
+        <v>17686</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1538,13 +1593,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>5992</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1552,13 +1607,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>2636</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1566,66 +1621,66 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>2459</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>1939</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>971</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1633,13 +1688,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1647,15 +1702,29 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
@@ -1666,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1682,34 +1751,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>5420798</v>
+        <v>6078009</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>5420798</v>
+        <v>6078009</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>873926</v>
+        <v>946361</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>873926</v>
+        <v>946361</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1717,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>797062</v>
+        <v>830608</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1725,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>164018</v>
+        <v>180758</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1733,15 +1802,15 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>142371</v>
+        <v>153085</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>133527</v>
+        <v>149323</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1749,111 +1818,111 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>124224</v>
+        <v>133190</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>107988</v>
+        <v>113501</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>107988</v>
+        <v>113501</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13">
-        <v>89968</v>
+        <v>94971</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B14">
-        <v>89968</v>
+        <v>94971</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B15">
-        <v>87524</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B16">
-        <v>87524</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B17">
-        <v>87524</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B18">
-        <v>77624</v>
+        <v>85641</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19">
-        <v>77624</v>
+        <v>85641</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B20">
-        <v>77624</v>
+        <v>85641</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B21">
-        <v>65741</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B22">
-        <v>65741</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B23">
-        <v>65741</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1861,39 +1930,39 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>22734</v>
+        <v>23815</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>18848</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B26">
-        <v>18848</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27">
-        <v>4747</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B28">
-        <v>4747</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1901,31 +1970,55 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>4007</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B30">
-        <v>3693</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B31">
-        <v>3693</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B32">
-        <v>1767</v>
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>2284</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +2028,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1946,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1957,103 +2050,103 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
         <v>67</v>
-      </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11">
         <v>33</v>
@@ -2064,7 +2157,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>33</v>
@@ -2075,18 +2168,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14">
         <v>32</v>
@@ -2097,13 +2190,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2111,95 +2204,95 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -2207,51 +2300,51 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2262,7 +2355,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2273,7 +2366,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2284,12 +2377,45 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>0</v>
       </c>
     </row>
@@ -2300,7 +2426,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2311,63 +2437,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>206976</v>
+        <v>234959</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>206976</v>
+        <v>234959</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B4">
-        <v>123710</v>
+        <v>132432</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>123710</v>
+        <v>132432</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>123710</v>
+        <v>132432</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>68717</v>
+        <v>74442</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>68717</v>
+        <v>74442</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2375,71 +2501,71 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>59009</v>
+        <v>62367</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>44233</v>
+        <v>49815</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>44233</v>
+        <v>49815</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>42338</v>
+        <v>46865</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>42313</v>
+        <v>46865</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>42313</v>
+        <v>46093</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B15">
-        <v>22649</v>
+        <v>25106</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B16">
-        <v>22649</v>
+        <v>25106</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B17">
-        <v>22649</v>
+        <v>25106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2447,7 +2573,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>21874</v>
+        <v>23736</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2455,100 +2581,100 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>16128</v>
+        <v>17686</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20">
-        <v>5992</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B21">
-        <v>5992</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B22">
-        <v>2636</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B23">
-        <v>2636</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24">
-        <v>2459</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B25">
-        <v>2459</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>1939</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B27">
-        <v>971</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2556,9 +2682,33 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>0</v>
       </c>
     </row>
@@ -2569,7 +2719,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2585,98 +2735,114 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>5639044</v>
+        <v>6308721</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>1670988</v>
+        <v>1776969</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>214192</v>
+        <v>228161</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <v>77624</v>
+        <v>85641</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>65741</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>65741</v>
+        <v>73787</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>49339</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9">
-        <v>7700</v>
+        <v>8097</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10">
-        <v>4747</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B11">
-        <v>4007</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B12">
-        <v>1767</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B13">
-        <v>1767</v>
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>2284</v>
       </c>
     </row>
   </sheetData>
@@ -2686,7 +2852,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2697,37 +2863,37 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C2">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>33</v>
@@ -2738,7 +2904,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -2749,68 +2915,68 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2818,20 +2984,42 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -2842,7 +3030,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2853,102 +3041,118 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>314470</v>
+        <v>352193</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>123710</v>
+        <v>132432</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>103242</v>
+        <v>109232</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>84651</v>
+        <v>95908</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>27866</v>
+        <v>30995</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>3430</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>2636</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>1939</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B10">
-        <v>1939</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B11">
-        <v>971</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B13">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
     </row>

--- a/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
+++ b/Monthly_Reports/Monthly_Data/2021 Charts Month 2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="86">
   <si>
     <t>Artist</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Showmain, 7en</t>
   </si>
   <si>
-    <t>Kamix, WYKO, PJONAX</t>
-  </si>
-  <si>
     <t>Polygon</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Chasing The Sun</t>
   </si>
   <si>
-    <t>Without You</t>
-  </si>
-  <si>
     <t>Falling</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>Future House Cloud</t>
   </si>
   <si>
-    <t>Revealed Music, Revealed Radar</t>
-  </si>
-  <si>
     <t>Elevate Records, SHOGUN</t>
   </si>
   <si>
@@ -276,15 +267,6 @@
     <t>Showmain</t>
   </si>
   <si>
-    <t>Kamix</t>
-  </si>
-  <si>
-    <t>PJONAX</t>
-  </si>
-  <si>
-    <t>WYKO</t>
-  </si>
-  <si>
     <t>Armada Music</t>
   </si>
   <si>
@@ -292,12 +274,6 @@
   </si>
   <si>
     <t>FHC Selection</t>
-  </si>
-  <si>
-    <t>Revealed Music</t>
-  </si>
-  <si>
-    <t>Revealed Radar</t>
   </si>
   <si>
     <t>Elevate Records</t>
@@ -661,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -686,13 +662,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>6078009</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -700,13 +676,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>946361</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -714,13 +690,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>830608</v>
+        <v>797062</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -728,13 +704,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>149323</v>
+        <v>133527</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -742,13 +718,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>133190</v>
+        <v>124224</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -756,13 +732,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>113501</v>
+        <v>107988</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -770,13 +746,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>97959</v>
+        <v>91603</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -784,13 +760,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>94971</v>
+        <v>89968</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -798,13 +774,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>93396</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -812,13 +788,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>73787</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -826,13 +802,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>55126</v>
+        <v>50768</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -840,13 +816,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>50767</v>
+        <v>45522</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -854,13 +830,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>31435</v>
+        <v>30491</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -868,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15">
-        <v>23815</v>
+        <v>22734</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -882,13 +858,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>22014</v>
+        <v>20748</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -896,13 +872,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>19665</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -910,13 +886,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>12860</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -924,13 +900,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>5102</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -938,13 +914,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>4116</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -952,13 +928,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>3981</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -966,27 +942,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23">
-        <v>2284</v>
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +958,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1013,10 +975,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1024,16 +986,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E2">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1041,16 +1003,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1058,16 +1020,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1075,67 +1037,67 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
       <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
         <v>35</v>
-      </c>
-      <c r="E6">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
         <v>33</v>
-      </c>
-      <c r="E7">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1143,58 +1105,58 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -1203,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1211,10 +1173,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1225,50 +1187,50 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1276,30 +1238,30 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1310,13 +1272,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1327,13 +1289,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1344,13 +1306,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1361,35 +1323,18 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -1400,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1425,13 +1370,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>234959</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1439,13 +1384,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>74442</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1453,13 +1398,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>62367</v>
+        <v>59009</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1467,69 +1412,69 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>55545</v>
+        <v>51946</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>49815</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>47745</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>46865</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>46093</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1537,13 +1482,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>29142</v>
+        <v>26999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1551,13 +1496,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>25106</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1565,13 +1510,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>23736</v>
+        <v>21874</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1579,13 +1524,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>17686</v>
+        <v>16128</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1593,13 +1538,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>7259</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1607,13 +1552,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>2965</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1621,66 +1566,66 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>2667</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>2465</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>1339</v>
+        <v>971</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>1017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1688,13 +1633,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1702,29 +1647,15 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23">
         <v>0</v>
       </c>
     </row>
@@ -1735,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1751,34 +1682,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>6078009</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>6078009</v>
+        <v>5420798</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4">
-        <v>946361</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>946361</v>
+        <v>873926</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1786,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>830608</v>
+        <v>797062</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1794,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>180758</v>
+        <v>164018</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1802,15 +1733,15 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>153085</v>
+        <v>142371</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>149323</v>
+        <v>133527</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1818,111 +1749,111 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>133190</v>
+        <v>124224</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11">
-        <v>113501</v>
+        <v>107988</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12">
-        <v>113501</v>
+        <v>107988</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13">
-        <v>94971</v>
+        <v>89968</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14">
-        <v>94971</v>
+        <v>89968</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15">
-        <v>93396</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16">
-        <v>93396</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17">
-        <v>93396</v>
+        <v>87524</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18">
-        <v>85641</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19">
-        <v>85641</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B20">
-        <v>85641</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21">
-        <v>73787</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22">
-        <v>73787</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B23">
-        <v>73787</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1930,39 +1861,39 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>23815</v>
+        <v>22734</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25">
-        <v>19665</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26">
-        <v>19665</v>
+        <v>18848</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27">
-        <v>5102</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28">
-        <v>5102</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1970,55 +1901,31 @@
         <v>19</v>
       </c>
       <c r="B29">
-        <v>4116</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B30">
-        <v>3981</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31">
-        <v>3981</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35">
-        <v>2284</v>
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +1935,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2039,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2050,103 +1957,103 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10">
         <v>35</v>
-      </c>
-      <c r="C10">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>33</v>
@@ -2157,7 +2064,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>33</v>
@@ -2168,18 +2075,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
         <v>33</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>32</v>
@@ -2190,13 +2097,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2204,95 +2111,95 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -2300,51 +2207,51 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2355,7 +2262,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2366,7 +2273,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2377,45 +2284,12 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
         <v>0</v>
       </c>
     </row>
@@ -2426,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2437,63 +2311,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>234959</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>234959</v>
+        <v>206976</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4">
-        <v>132432</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5">
-        <v>132432</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>132432</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>74442</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>74442</v>
+        <v>68717</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2501,71 +2375,71 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>62367</v>
+        <v>59009</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10">
-        <v>49815</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>49815</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>46865</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B13">
-        <v>46865</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B14">
-        <v>46093</v>
+        <v>42313</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15">
-        <v>25106</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16">
-        <v>25106</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17">
-        <v>25106</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2573,7 +2447,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>23736</v>
+        <v>21874</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2581,100 +2455,100 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>17686</v>
+        <v>16128</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20">
-        <v>7259</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21">
-        <v>7259</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22">
-        <v>2965</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23">
-        <v>2965</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24">
-        <v>2667</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25">
-        <v>2667</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>2465</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>1339</v>
+        <v>971</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B28">
-        <v>1339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B29">
-        <v>1339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B30">
-        <v>1017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2682,33 +2556,9 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35">
         <v>0</v>
       </c>
     </row>
@@ -2719,7 +2569,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2735,114 +2585,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>6308721</v>
+        <v>5639044</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>1776969</v>
+        <v>1670988</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>228161</v>
+        <v>214192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>85641</v>
+        <v>77624</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B6">
-        <v>73787</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B7">
-        <v>73787</v>
+        <v>65741</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>51100</v>
+        <v>49339</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>8097</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>5102</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>4116</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B12">
-        <v>2871</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B13">
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15">
-        <v>2284</v>
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2686,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2863,37 +2697,37 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>33</v>
@@ -2904,7 +2738,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -2915,68 +2749,68 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2984,42 +2818,20 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -3030,7 +2842,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3041,118 +2853,102 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>352193</v>
+        <v>314470</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>132432</v>
+        <v>123710</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>109232</v>
+        <v>103242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>95908</v>
+        <v>84651</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>30995</v>
+        <v>27866</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>3684</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>2965</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B9">
-        <v>2465</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B10">
-        <v>2465</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>1339</v>
+        <v>971</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B12">
-        <v>1339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B13">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15">
         <v>0</v>
       </c>
     </row>
